--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RobotMeQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA5C69-C45D-4562-A4BF-0FF13E4B8CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A159B90-0343-4168-B88E-A7783FA289CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
   <si>
     <t>identify_Market_Types</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,12 +440,219 @@
     <t>模型预测1000次就买对了6次，一次没卖对，还是无法计算收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>accuracy:0.8209598432908913  步长50 CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8141935483870968  100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8215714982918497  步长30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8170648464163822  步长20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8210124164278892  步长20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8054432501725668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8205128205128205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.576300578034682  只有2000条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8193548387096774  1w数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8345857418111753  2w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.6578653774637412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.8236686390532545</t>
+  </si>
+  <si>
+    <t>之前忘改3分类，区别不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5494455759221544   A步长160 30 ClassCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5556227327690447   A步长160 d ClassCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.6309226932668329   A步长160 d ClassCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5995302407516148   A步长160 30 ClassCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5618168569346612   A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5743461498384912   A15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5423509075194468  HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5972350230414747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.6517571884984026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label4  数据只有2000条，估计过拟合了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5364209610784954  USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.6156564283772764</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5636882129277566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">accuracy:0.5166666666666667  crypto  15  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label2  数据只有1500条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5866834170854272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5673076923076923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label3是按指标过滤，效果最好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">accuracy:0.6703220191470844   A步长 160 d ClassCNN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇迹！ 换特征的奇迹！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">accuracy:0.6587787522753599   A步长  60 d ClassCNN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.6048700328652524  HK  步长160 d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">accuracy:0.6243630573248408  USA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.49489795918367346  crypto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率从&gt;20%降到10%，才有1000条，5%就没必要了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5434439178515008  A 步长160 d CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5407392686804452                   15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5319711115025542  USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5306571815718157  HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.574394119984108   A 步长160 d CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5767042619023854  换全指标特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.7002970297029703     A 步长160 d CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.4773543495610535     A 步长160 d CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.4223021582733813    A 步长160 d CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +696,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -659,21 +874,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,21 +898,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -727,9 +920,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -740,9 +930,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -753,14 +940,44 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -771,24 +988,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,13 +1281,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1158,533 +1369,525 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="F4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="14"/>
+      <c r="I4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="14"/>
+      <c r="I5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="14"/>
+      <c r="I6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="14"/>
+      <c r="I7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="F8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="15"/>
+      <c r="I8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="16"/>
+      <c r="I9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="41"/>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="E11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="I11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="E12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="25"/>
-      <c r="B12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="I12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="41"/>
+      <c r="B13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="E13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="I13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="24"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="20" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="43"/>
+      <c r="B20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="26" t="s">
+    <row r="22" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="43"/>
+      <c r="B22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="26" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="43"/>
+      <c r="B23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="26" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="44"/>
+      <c r="B24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D27" s="30"/>
+      <c r="D25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1703,29 +1906,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D078B79-CDD0-4BC8-BF45-F3FEAD036F25}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.1328125" customWidth="1"/>
     <col min="2" max="2" width="51.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="22" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1736,135 +2017,278 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F708B59-75D8-42FD-8862-D8E161EC62B9}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="2" width="27.46484375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="27.46484375" style="24" customWidth="1"/>
     <col min="3" max="3" width="38.19921875" customWidth="1"/>
     <col min="4" max="4" width="37.53125" customWidth="1"/>
-    <col min="5" max="5" width="40.265625" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" customWidth="1"/>
+    <col min="5" max="5" width="54.19921875" customWidth="1"/>
+    <col min="6" max="6" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45"/>
-      <c r="C1" s="51" t="s">
+    <row r="1" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="34"/>
+      <c r="C1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="35" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="26" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="35" customFormat="1" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="26" customFormat="1" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A3" s="46"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:6" s="35" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" s="26" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A4" s="46"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:6" s="35" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" s="26" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A5" s="46"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:6" s="35" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" s="26" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A6" s="46"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="40" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="30" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="30" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A8" s="48"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="43" t="s">
+      <c r="C8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="33"/>
-      <c r="C9" s="54" t="s">
+    <row r="9" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="B9" s="50"/>
+      <c r="C9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="22" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="50"/>
+      <c r="D10" s="52"/>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="50"/>
+      <c r="D11" s="52"/>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="50"/>
+      <c r="D12" s="52"/>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="50"/>
+      <c r="D13" s="52"/>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="51"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E29" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1873,29 +2297,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E37368-C16D-4846-AF0D-E975E35060FF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.1328125" customWidth="1"/>
     <col min="2" max="2" width="50.59765625" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:3" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="22" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1906,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E131AFD-ACF1-4CB2-A03A-7C20463F68C6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1924,43 +2383,140 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="16"/>
+      <c r="B7" s="22"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
+      <c r="B8" s="22"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B9" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B13" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="22"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B17" s="22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B22" s="22" t="s">
         <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RobotMeQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A159B90-0343-4168-B88E-A7783FA289CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D93C73-ED20-4F67-B835-CC1AF3495542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
   <si>
     <t>identify_Market_Types</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,12 +647,92 @@
     <t>样本少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>accuracy:0.43441480891719747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.7034544194793626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.6846774997507726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.600596421471173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.6146525230494696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟模糊差不多，我没有模糊指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5739715189873418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极值均样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5471025260029718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标标，指标训练，对模型来说&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极值标，指标训练，因为策略有依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型感觉不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能比收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略按预测值统计收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极值每一刻都交易，最后挑出1、3统计收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期策略收益率高，否则，失去了一个论文创新点，得到了一个好策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.5988071570576541timenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,8 +789,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,6 +855,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,6 +1060,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -997,9 +1098,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1281,13 +1396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1302,9 +1417,10 @@
     <col min="9" max="9" width="20.46484375" customWidth="1"/>
     <col min="10" max="10" width="21.9296875" customWidth="1"/>
     <col min="11" max="11" width="15.9296875" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1335,8 +1451,11 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L1" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1367,9 +1486,10 @@
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
+      <c r="L2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1386,9 +1506,10 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="43"/>
       <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
@@ -1417,9 +1538,10 @@
         <v>33</v>
       </c>
       <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
@@ -1448,9 +1570,10 @@
         <v>33</v>
       </c>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="41"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="43"/>
       <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
@@ -1479,9 +1602,10 @@
         <v>33</v>
       </c>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="41"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1510,9 +1634,10 @@
         <v>33</v>
       </c>
       <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41"/>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="43"/>
       <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1541,9 +1666,10 @@
         <v>33</v>
       </c>
       <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="43"/>
       <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
@@ -1572,9 +1698,10 @@
         <v>33</v>
       </c>
       <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="43"/>
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
@@ -1601,9 +1728,10 @@
         <v>33</v>
       </c>
       <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="41"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="43"/>
       <c r="B11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1632,9 +1760,10 @@
         <v>33</v>
       </c>
       <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>28</v>
       </c>
@@ -1663,9 +1792,10 @@
         <v>33</v>
       </c>
       <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="41"/>
+      <c r="L12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="43"/>
       <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
@@ -1694,9 +1824,10 @@
         <v>33</v>
       </c>
       <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="42" t="s">
+      <c r="L13" s="60"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1713,9 +1844,15 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
+      <c r="L14" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="45"/>
       <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
@@ -1730,9 +1867,15 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
+      <c r="L15" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="45"/>
       <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
@@ -1747,9 +1890,10 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="45"/>
       <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
@@ -1764,9 +1908,10 @@
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
+      <c r="L17" s="54"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="45"/>
       <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
@@ -1780,10 +1925,11 @@
       <c r="J18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="43"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="54"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="45"/>
       <c r="B19" s="16" t="s">
         <v>64</v>
       </c>
@@ -1797,10 +1943,18 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="43"/>
+      <c r="K19" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" s="61">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="45"/>
       <c r="B20" s="16" t="s">
         <v>74</v>
       </c>
@@ -1816,10 +1970,18 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
+      <c r="K20" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="45"/>
       <c r="B21" s="16" t="s">
         <v>6</v>
       </c>
@@ -1831,12 +1993,13 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
+      <c r="K21" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="54"/>
+    </row>
+    <row r="22" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="45"/>
       <c r="B22" s="18" t="s">
         <v>47</v>
       </c>
@@ -1851,9 +2014,10 @@
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
-    </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
+      <c r="L22" s="54"/>
+    </row>
+    <row r="23" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="45"/>
       <c r="B23" s="18" t="s">
         <v>50</v>
       </c>
@@ -1868,9 +2032,10 @@
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="44"/>
+      <c r="L23" s="54"/>
+    </row>
+    <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="46"/>
       <c r="B24" s="18" t="s">
         <v>43</v>
       </c>
@@ -1885,9 +2050,59 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D25" s="22"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J30" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="K34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J37" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2020,7 +2235,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2046,10 +2261,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -2066,8 +2281,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="26" customFormat="1" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A3" s="46"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="31" t="s">
         <v>55</v>
       </c>
@@ -2075,8 +2290,8 @@
       <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:6" s="26" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="46"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="31" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2299,8 @@
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:6" s="26" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A5" s="46"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="31" t="s">
         <v>49</v>
       </c>
@@ -2093,7 +2308,7 @@
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:6" s="26" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="27" t="s">
         <v>62</v>
       </c>
@@ -2104,7 +2319,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="30" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -2119,8 +2334,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="30" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2132,7 +2347,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="39" t="s">
         <v>83</v>
       </c>
@@ -2144,8 +2359,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="50"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="E10" t="s">
         <v>102</v>
       </c>
@@ -2154,8 +2368,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="50"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -2164,9 +2377,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="50"/>
-      <c r="D12" s="52"/>
-      <c r="E12" t="s">
+      <c r="B12" s="52"/>
+      <c r="E12" s="61" t="s">
         <v>104</v>
       </c>
       <c r="F12" t="s">
@@ -2174,8 +2386,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="50"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="E13" t="s">
         <v>105</v>
       </c>
@@ -2184,8 +2395,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="50"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="E14" t="s">
         <v>106</v>
       </c>
@@ -2194,8 +2404,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="50"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="E15" t="s">
         <v>107</v>
       </c>
@@ -2204,7 +2413,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="51"/>
+      <c r="B16" s="53"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
@@ -2279,7 +2488,7 @@
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="40" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2300,7 +2509,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2330,7 +2539,7 @@
       <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2367,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E131AFD-ACF1-4CB2-A03A-7C20463F68C6}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2392,7 +2601,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
     </row>

--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RobotMeQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D93C73-ED20-4F67-B835-CC1AF3495542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13861E79-6C1D-4713-BD46-3CF1F1F2BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="159">
   <si>
     <t>identify_Market_Types</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accuracy:0.5767042619023854  换全指标特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accuracy:0.7002970297029703     A 步长160 d CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,6 +721,27 @@
   </si>
   <si>
     <t>accuracy:0.5988071570576541timenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy:0.6143923964697895</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">accuracy:0.5767042619023854  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换全指标特征</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,42 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1115,6 +1096,42 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1398,11 +1415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1451,8 +1468,8 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="54" t="s">
-        <v>145</v>
+      <c r="L1" s="42" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1486,10 +1503,10 @@
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="58"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1506,10 +1523,10 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="59"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
@@ -1538,10 +1555,10 @@
         <v>33</v>
       </c>
       <c r="K4" s="11"/>
-      <c r="L4" s="54"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
@@ -1570,10 +1587,10 @@
         <v>33</v>
       </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="54"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
@@ -1602,10 +1619,10 @@
         <v>33</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="54"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1634,10 +1651,10 @@
         <v>33</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="54"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1666,10 +1683,10 @@
         <v>33</v>
       </c>
       <c r="K8" s="12"/>
-      <c r="L8" s="59"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
@@ -1698,10 +1715,10 @@
         <v>33</v>
       </c>
       <c r="K9" s="13"/>
-      <c r="L9" s="59"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="43"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
@@ -1728,10 +1745,10 @@
         <v>33</v>
       </c>
       <c r="K10" s="14"/>
-      <c r="L10" s="59"/>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1760,10 +1777,10 @@
         <v>33</v>
       </c>
       <c r="K11" s="14"/>
-      <c r="L11" s="54"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="14" t="s">
         <v>28</v>
       </c>
@@ -1792,10 +1809,10 @@
         <v>33</v>
       </c>
       <c r="K12" s="14"/>
-      <c r="L12" s="54"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
@@ -1824,10 +1841,10 @@
         <v>33</v>
       </c>
       <c r="K13" s="14"/>
-      <c r="L13" s="60"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1844,15 +1861,15 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="54" t="s">
-        <v>144</v>
+      <c r="L14" s="42" t="s">
+        <v>143</v>
       </c>
       <c r="M14">
         <v>0.54</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="45"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
@@ -1867,15 +1884,15 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="54" t="s">
-        <v>146</v>
+      <c r="L15" s="42" t="s">
+        <v>145</v>
       </c>
       <c r="M15">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
@@ -1890,10 +1907,10 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="54"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="45"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
@@ -1908,10 +1925,10 @@
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="54"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="45"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
@@ -1925,11 +1942,11 @@
       <c r="J18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="54"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="45"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="16" t="s">
         <v>64</v>
       </c>
@@ -1943,25 +1960,27 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="M19" s="61">
+      <c r="K19" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" s="49">
         <v>0.63</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="45"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
@@ -1970,18 +1989,18 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="L20" s="54" t="s">
-        <v>141</v>
-      </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="45"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="16" t="s">
         <v>6</v>
       </c>
@@ -1993,13 +2012,13 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="54"/>
+      <c r="K21" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="45"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="18" t="s">
         <v>47</v>
       </c>
@@ -2014,10 +2033,10 @@
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="54"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="45"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="18" t="s">
         <v>50</v>
       </c>
@@ -2032,10 +2051,10 @@
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="54"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="18" t="s">
         <v>43</v>
       </c>
@@ -2050,58 +2069,58 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="54"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D25" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
         <v>147</v>
-      </c>
-      <c r="K28" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="J30" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" t="s">
         <v>150</v>
-      </c>
-      <c r="K30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="J32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.4">
       <c r="J33" t="s">
+        <v>152</v>
+      </c>
+      <c r="K33" t="s">
         <v>153</v>
-      </c>
-      <c r="K33" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.4">
       <c r="K34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.4">
       <c r="J35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.4">
       <c r="J37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D078B79-CDD0-4BC8-BF45-F3FEAD036F25}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2234,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F708B59-75D8-42FD-8862-D8E161EC62B9}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2261,10 +2280,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="56" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -2281,8 +2300,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="26" customFormat="1" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A3" s="48"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="31" t="s">
         <v>55</v>
       </c>
@@ -2290,8 +2309,8 @@
       <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:6" s="26" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="31" t="s">
         <v>48</v>
       </c>
@@ -2299,8 +2318,8 @@
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:6" s="26" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A5" s="48"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="31" t="s">
         <v>49</v>
       </c>
@@ -2308,7 +2327,7 @@
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:6" s="26" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A6" s="48"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="27" t="s">
         <v>62</v>
       </c>
@@ -2319,7 +2338,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="30" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="58" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -2334,8 +2353,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="30" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2347,7 +2366,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="39" t="s">
         <v>83</v>
       </c>
@@ -2359,7 +2378,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="52"/>
+      <c r="B10" s="61"/>
       <c r="E10" t="s">
         <v>102</v>
       </c>
@@ -2368,7 +2387,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="52"/>
+      <c r="B11" s="61"/>
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -2377,8 +2396,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="52"/>
-      <c r="E12" s="61" t="s">
+      <c r="B12" s="61"/>
+      <c r="E12" s="49" t="s">
         <v>104</v>
       </c>
       <c r="F12" t="s">
@@ -2386,7 +2405,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="52"/>
+      <c r="B13" s="61"/>
       <c r="E13" t="s">
         <v>105</v>
       </c>
@@ -2395,7 +2414,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="52"/>
+      <c r="B14" s="61"/>
       <c r="E14" t="s">
         <v>106</v>
       </c>
@@ -2404,7 +2423,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="52"/>
+      <c r="B15" s="61"/>
       <c r="E15" t="s">
         <v>107</v>
       </c>
@@ -2413,7 +2432,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="53"/>
+      <c r="B16" s="62"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
@@ -2577,7 +2596,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2601,7 +2620,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2648,7 +2667,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="22" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -2666,7 +2685,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -2685,16 +2704,16 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2717,15 +2736,15 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
